--- a/results/descriptives_epidemic.xlsx
+++ b/results/descriptives_epidemic.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>35.31893004115226</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3.28306050439343</v>
+        <v>2.12251042519242</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>29.33665705571512</v>
+        <v>68.86011820637988</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>29.53778513546469</v>
+        <v>69.45028876784745</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>29.53635196496981</v>
+        <v>69.4609857831491</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>29.78726990604741</v>
+        <v>70.09794934085046</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.06549128613708233</v>
+        <v>0.2586293839891742</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>11.70136201580877</v>
+        <v>12.25874554004724</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>14.23888344216103</v>
+        <v>13.92888260983688</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>13.98130260109552</v>
+        <v>13.84910333471393</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>20.54795621615977</v>
+        <v>16.31782648724041</v>
       </c>
     </row>
     <row r="16">
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.316877287601681</v>
+        <v>0.7374389936342706</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>infpernode</t>
+          <t>inf_peak</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>12.23979852330211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>infpernode</t>
+          <t>inf_peak</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>29.53778513546469</v>
+        <v>12.96476958903796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>infpernode</t>
+          <t>inf_peak</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>15.63786008230453</v>
+        <v>12.96675201584923</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>infpernode</t>
+          <t>inf_peak</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>13.87202206261515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>infpernode</t>
+          <t>inf_peak</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -671,37 +671,172 @@
         </is>
       </c>
       <c r="C21">
-        <v>31.15045283433323</v>
+        <v>0.3376795507266901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>never_infected</t>
+          <t>time_peak</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>total_pct</t>
+          <t>min</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.03268160531296149</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>max_infected_nonepi</t>
+          <t>time_peak</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>time_peak</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>time_peak</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>time_peak</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>0.8466213302106655</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>infpernode</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>infpernode</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>69.45028876784745</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>infpernode</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>infpernode</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>infpernode</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>33.15236740884213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>never_infected</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>total_pct</t>
         </is>
       </c>
-      <c r="C23">
-        <v>0.002247445637567552</v>
+      <c r="C32">
+        <v>0.2790276621263397</v>
       </c>
     </row>
   </sheetData>
